--- a/Part1/part1Outline.xlsx
+++ b/Part1/part1Outline.xlsx
@@ -1,27 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22221"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="40" windowWidth="23220" windowHeight="15560"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="13395" windowHeight="7740"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="114210"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Vehicle</t>
   </si>
@@ -80,14 +75,79 @@
     </r>
   </si>
   <si>
-    <t>Vehicles</t>
+    <t>VehicleEnums</t>
+  </si>
+  <si>
+    <t>ALL, CAR, TRUCK, BIKE</t>
+  </si>
+  <si>
+    <t>COMPANY</t>
+  </si>
+  <si>
+    <t>Data Structure()</t>
+  </si>
+  <si>
+    <t>printVehicles(): void</t>
+  </si>
+  <si>
+    <t>Driver (Main)</t>
+  </si>
+  <si>
+    <t>(Menu interface)</t>
+  </si>
+  <si>
+    <t>PART II</t>
+  </si>
+  <si>
+    <r>
+      <t>COMPANY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (extends from Part 1)</t>
+    </r>
+  </si>
+  <si>
+    <t>data structure()</t>
+  </si>
+  <si>
+    <t>printVehicles()</t>
+  </si>
+  <si>
+    <t>buyVehicle()</t>
+  </si>
+  <si>
+    <t>sellVehicle()</t>
+  </si>
+  <si>
+    <t>Dealership</t>
+  </si>
+  <si>
+    <t>setBalance()</t>
+  </si>
+  <si>
+    <t>getBalance()</t>
+  </si>
+  <si>
+    <t>PART I</t>
+  </si>
+  <si>
+    <t>Part III</t>
+  </si>
+  <si>
+    <t>(Read in file to populate list of cars)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,12 +156,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -124,21 +194,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -217,7 +286,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -252,7 +320,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -428,127 +495,193 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" customWidth="1"/>
-    <col min="2" max="2" width="18.5" customWidth="1"/>
-    <col min="3" max="3" width="24.5" customWidth="1"/>
-    <col min="4" max="4" width="25.83203125" customWidth="1"/>
-    <col min="5" max="5" width="26.33203125" customWidth="1"/>
+    <col min="1" max="1" width="31.42578125" customWidth="1"/>
+    <col min="2" max="2" width="32.42578125" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" customWidth="1"/>
+    <col min="4" max="4" width="25.85546875" customWidth="1"/>
+    <col min="5" max="5" width="26.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6">
+      <c r="E1" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
+      <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
+      <c r="E5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1" t="s">
-        <v>15</v>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="E17" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="E26" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>